--- a/homework/HW_060_Quads_ChangingDataValues.xlsx
+++ b/homework/HW_060_Quads_ChangingDataValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework_key/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BA6381-2E0D-B44A-AD06-466AA0A75D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DB4546-BB17-404C-A5CF-B2665BF72A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="1320" windowWidth="30340" windowHeight="17940" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="-2720" yWindow="-20240" windowWidth="30340" windowHeight="17940" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -286,11 +286,11 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,7 +910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="185" zoomScaleNormal="185" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -963,10 +965,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
       <c r="H5" s="3"/>
@@ -979,7 +981,7 @@
       <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -996,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1017,7 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1124,12 +1126,12 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
@@ -1262,10 +1264,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="H5" s="3"/>
@@ -1278,7 +1280,7 @@
       <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="15" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1316,7 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="15" t="s">
         <v>5</v>
       </c>

--- a/homework/HW_060_Quads_ChangingDataValues.xlsx
+++ b/homework/HW_060_Quads_ChangingDataValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DB4546-BB17-404C-A5CF-B2665BF72A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A05302-B1AC-2245-8328-675CF783D03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2720" yWindow="-20240" windowWidth="30340" windowHeight="17940" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
+    <workbookView xWindow="-2720" yWindow="-20240" windowWidth="23120" windowHeight="19120" activeTab="2" xr2:uid="{D1BFE8BC-6849-114B-B334-B4FF7A33EA9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Author" sheetId="10" r:id="rId1"/>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AECFFE2-26E8-0B4F-A13C-D6C167687420}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
